--- a/Progress Check-Ins 2020.xlsx
+++ b/Progress Check-Ins 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OIP\MAST\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Documents\Code\MAST eval project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76882124-9E82-43E0-9864-0EC409F9B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC59980-D067-40D5-8946-7C60E46A235D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2415" windowWidth="23280" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13370" yWindow="-21710" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="In country" sheetId="1" r:id="rId1"/>
@@ -3188,31 +3188,31 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>146</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>184</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>188</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>191</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>193</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>198</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>200</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>209</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>210</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>214</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>217</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>238</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>44134</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>239</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>240</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>241</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>243</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>244</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>245</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>246</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>247</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>248</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>249</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>250</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>251</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>252</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>253</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
         <v>254</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>255</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="s">
         <v>256</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>257</v>
       </c>
@@ -4512,10 +4512,10 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33" s="51"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
         <v>339</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="64" t="s">
         <v>353</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
         <v>354</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
         <v>355</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="66" t="s">
         <v>356</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="66" t="s">
         <v>357</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="66" t="s">
         <v>358</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="67" t="s">
         <v>359</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
         <v>360</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="67" t="s">
         <v>362</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
         <v>363</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="67" t="s">
         <v>364</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
         <v>365</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="67" t="s">
         <v>366</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="67" t="s">
         <v>367</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="67" t="s">
         <v>368</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="67" t="s">
         <v>369</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="64" t="s">
         <v>370</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="64" t="s">
         <v>371</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="s">
         <v>372</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="64" t="s">
         <v>416</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="68" t="s">
         <v>418</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="73" t="s">
         <v>434</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="73" t="s">
         <v>435</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="73" t="s">
         <v>436</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="73" t="s">
         <v>437</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="73" t="s">
         <v>438</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="74" t="s">
         <v>439</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="73" t="s">
         <v>440</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="74" t="s">
         <v>441</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>44134</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="74" t="s">
         <v>442</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="73" t="s">
         <v>443</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="74" t="s">
         <v>444</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="73" t="s">
         <v>445</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="75" t="s">
         <v>446</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="73" t="s">
         <v>447</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="74" t="s">
         <v>448</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
         <v>449</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="81" t="s">
         <v>533</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>44180</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="83" t="s">
         <v>536</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="84" t="s">
         <v>548</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="87" t="s">
         <v>572</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="87" t="s">
         <v>573</v>
       </c>
@@ -6210,28 +6210,28 @@
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="28" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>68</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>108</v>
       </c>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>114</v>
       </c>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>227</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>53</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>61</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
         <v>415</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
         <v>373</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="68" t="s">
         <v>417</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="67" t="s">
         <v>361</v>
       </c>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>76</v>
       </c>
@@ -7002,7 +7002,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>242</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>132</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
         <v>218</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="79" t="s">
         <v>224</v>
       </c>
@@ -7181,7 +7181,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="80" t="s">
         <v>237</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>141</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>204</v>
       </c>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>90</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>87</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
         <v>99</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>165</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>173</v>
       </c>
@@ -7545,7 +7545,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>116</v>
       </c>
@@ -7591,7 +7591,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>124</v>
       </c>
@@ -7637,7 +7637,7 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>127</v>
       </c>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>138</v>
       </c>
@@ -7733,7 +7733,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>144</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>145</v>
       </c>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="s">
         <v>154</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>161</v>
       </c>
@@ -7919,7 +7919,7 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>171</v>
       </c>
@@ -7967,7 +7967,7 @@
       </c>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>174</v>
       </c>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>180</v>
       </c>
